--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.54669533333333</v>
+        <v>10.06074966666667</v>
       </c>
       <c r="H2">
-        <v>34.640086</v>
+        <v>30.182249</v>
       </c>
       <c r="I2">
-        <v>0.610580659708203</v>
+        <v>0.5973429698540321</v>
       </c>
       <c r="J2">
-        <v>0.6226108401814066</v>
+        <v>0.6070431468316489</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N2">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O2">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P2">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q2">
-        <v>461.0568465821904</v>
+        <v>234.5801885340424</v>
       </c>
       <c r="R2">
-        <v>4149.511619239714</v>
+        <v>2111.221696806382</v>
       </c>
       <c r="S2">
-        <v>0.4785086244185972</v>
+        <v>0.3484111641176723</v>
       </c>
       <c r="T2">
-        <v>0.5100608710432053</v>
+        <v>0.3946100086901689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.54669533333333</v>
+        <v>10.06074966666667</v>
       </c>
       <c r="H3">
-        <v>34.640086</v>
+        <v>30.182249</v>
       </c>
       <c r="I3">
-        <v>0.610580659708203</v>
+        <v>0.5973429698540321</v>
       </c>
       <c r="J3">
-        <v>0.6226108401814066</v>
+        <v>0.6070431468316489</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O3">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P3">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q3">
-        <v>35.95573186187377</v>
+        <v>31.32858423135288</v>
       </c>
       <c r="R3">
-        <v>323.6015867568639</v>
+        <v>281.9572580821759</v>
       </c>
       <c r="S3">
-        <v>0.03731671684463765</v>
+        <v>0.04653090514768763</v>
       </c>
       <c r="T3">
-        <v>0.0397773334208452</v>
+        <v>0.05270083962777099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.54669533333333</v>
+        <v>10.06074966666667</v>
       </c>
       <c r="H4">
-        <v>34.640086</v>
+        <v>30.182249</v>
       </c>
       <c r="I4">
-        <v>0.610580659708203</v>
+        <v>0.5973429698540321</v>
       </c>
       <c r="J4">
-        <v>0.6226108401814066</v>
+        <v>0.6070431468316489</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N4">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O4">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P4">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q4">
-        <v>4.135768392204222</v>
+        <v>2.273531563256555</v>
       </c>
       <c r="R4">
-        <v>37.22191552983799</v>
+        <v>20.461784069309</v>
       </c>
       <c r="S4">
-        <v>0.004292314188451745</v>
+        <v>0.00337677185598107</v>
       </c>
       <c r="T4">
-        <v>0.004575343895656894</v>
+        <v>0.003824527192772063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.54669533333333</v>
+        <v>10.06074966666667</v>
       </c>
       <c r="H5">
-        <v>34.640086</v>
+        <v>30.182249</v>
       </c>
       <c r="I5">
-        <v>0.610580659708203</v>
+        <v>0.5973429698540321</v>
       </c>
       <c r="J5">
-        <v>0.6226108401814066</v>
+        <v>0.6070431468316489</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N5">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O5">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P5">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q5">
-        <v>76.55539255532565</v>
+        <v>123.9570026216745</v>
       </c>
       <c r="R5">
-        <v>459.3323553319539</v>
+        <v>743.742015730047</v>
       </c>
       <c r="S5">
-        <v>0.07945314304522383</v>
+        <v>0.1841076343822935</v>
       </c>
       <c r="T5">
-        <v>0.05646145444505837</v>
+        <v>0.1390133701896079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.54669533333333</v>
+        <v>10.06074966666667</v>
       </c>
       <c r="H6">
-        <v>34.640086</v>
+        <v>30.182249</v>
       </c>
       <c r="I6">
-        <v>0.610580659708203</v>
+        <v>0.5973429698540321</v>
       </c>
       <c r="J6">
-        <v>0.6226108401814066</v>
+        <v>0.6070431468316489</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N6">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O6">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P6">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q6">
-        <v>10.608318496984</v>
+        <v>10.04305951516944</v>
       </c>
       <c r="R6">
-        <v>95.47486647285598</v>
+        <v>90.38753563652499</v>
       </c>
       <c r="S6">
-        <v>0.01100986121129267</v>
+        <v>0.01491649435039761</v>
       </c>
       <c r="T6">
-        <v>0.01173583737664078</v>
+        <v>0.01689440113132901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.083171999999999</v>
       </c>
       <c r="I7">
-        <v>0.1424773741120295</v>
+        <v>0.1599756853215596</v>
       </c>
       <c r="J7">
-        <v>0.1452845847510546</v>
+        <v>0.1625735102530455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N7">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O7">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P7">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q7">
-        <v>107.5863897307142</v>
+        <v>62.82341689358844</v>
       </c>
       <c r="R7">
-        <v>968.2775075764279</v>
+        <v>565.4107520422959</v>
       </c>
       <c r="S7">
-        <v>0.1116587157046585</v>
+        <v>0.09330873144288795</v>
       </c>
       <c r="T7">
-        <v>0.11902134859342</v>
+        <v>0.1056813418100199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8.083171999999999</v>
       </c>
       <c r="I8">
-        <v>0.1424773741120295</v>
+        <v>0.1599756853215596</v>
       </c>
       <c r="J8">
-        <v>0.1452845847510546</v>
+        <v>0.1625735102530455</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O8">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P8">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q8">
         <v>8.390174465080888</v>
@@ -948,10 +948,10 @@
         <v>75.51157018572799</v>
       </c>
       <c r="S8">
-        <v>0.008707756693516968</v>
+        <v>0.01246154021274043</v>
       </c>
       <c r="T8">
-        <v>0.009281935031628968</v>
+        <v>0.01411392342749836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.083171999999999</v>
       </c>
       <c r="I9">
-        <v>0.1424773741120295</v>
+        <v>0.1599756853215596</v>
       </c>
       <c r="J9">
-        <v>0.1452845847510546</v>
+        <v>0.1625735102530455</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N9">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O9">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P9">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q9">
-        <v>0.9650705620751111</v>
+        <v>0.6088793009835556</v>
       </c>
       <c r="R9">
-        <v>8.685635058675999</v>
+        <v>5.479913708852</v>
       </c>
       <c r="S9">
-        <v>0.001001600107554464</v>
+        <v>0.0009043404193191242</v>
       </c>
       <c r="T9">
-        <v>0.001067644337480707</v>
+        <v>0.001024254723955585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>8.083171999999999</v>
       </c>
       <c r="I10">
-        <v>0.1424773741120295</v>
+        <v>0.1599756853215596</v>
       </c>
       <c r="J10">
-        <v>0.1452845847510546</v>
+        <v>0.1625735102530455</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N10">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O10">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P10">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q10">
-        <v>17.86399738015133</v>
+        <v>33.197187286986</v>
       </c>
       <c r="R10">
-        <v>107.183984280908</v>
+        <v>199.183123721916</v>
       </c>
       <c r="S10">
-        <v>0.01854017975518733</v>
+        <v>0.04930625531666617</v>
       </c>
       <c r="T10">
-        <v>0.01317513032876337</v>
+        <v>0.03722946495942939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>8.083171999999999</v>
       </c>
       <c r="I11">
-        <v>0.1424773741120295</v>
+        <v>0.1599756853215596</v>
       </c>
       <c r="J11">
-        <v>0.1452845847510546</v>
+        <v>0.1625735102530455</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N11">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O11">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P11">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q11">
-        <v>2.475422925968</v>
+        <v>2.689653029744444</v>
       </c>
       <c r="R11">
-        <v>22.27880633371199</v>
+        <v>24.2068772677</v>
       </c>
       <c r="S11">
-        <v>0.002569121851112234</v>
+        <v>0.003994817929945916</v>
       </c>
       <c r="T11">
-        <v>0.002738526459761566</v>
+        <v>0.004524525332142312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.261376666666667</v>
+        <v>1.673271333333333</v>
       </c>
       <c r="H12">
-        <v>3.78413</v>
+        <v>5.019813999999999</v>
       </c>
       <c r="I12">
-        <v>0.06670065980268071</v>
+        <v>0.09934815006247043</v>
       </c>
       <c r="J12">
-        <v>0.06801485304209887</v>
+        <v>0.1009614521127821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N12">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O12">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P12">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q12">
-        <v>50.3664755583189</v>
+        <v>39.01461798045022</v>
       </c>
       <c r="R12">
-        <v>453.2982800248701</v>
+        <v>351.131561824052</v>
       </c>
       <c r="S12">
-        <v>0.05227293145060744</v>
+        <v>0.0579466175431191</v>
       </c>
       <c r="T12">
-        <v>0.05571974168715184</v>
+        <v>0.06563025989756534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.261376666666667</v>
+        <v>1.673271333333333</v>
       </c>
       <c r="H13">
-        <v>3.78413</v>
+        <v>5.019813999999999</v>
       </c>
       <c r="I13">
-        <v>0.06670065980268071</v>
+        <v>0.09934815006247043</v>
       </c>
       <c r="J13">
-        <v>0.06801485304209887</v>
+        <v>0.1009614521127821</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O13">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P13">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q13">
-        <v>3.927852939235556</v>
+        <v>5.210468766748443</v>
       </c>
       <c r="R13">
-        <v>35.35067645311999</v>
+        <v>46.89421890073599</v>
       </c>
       <c r="S13">
-        <v>0.004076528785560715</v>
+        <v>0.007738869594940867</v>
       </c>
       <c r="T13">
-        <v>0.004345329879314474</v>
+        <v>0.008765033135047012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.261376666666667</v>
+        <v>1.673271333333333</v>
       </c>
       <c r="H14">
-        <v>3.78413</v>
+        <v>5.019813999999999</v>
       </c>
       <c r="I14">
-        <v>0.06670065980268071</v>
+        <v>0.09934815006247043</v>
       </c>
       <c r="J14">
-        <v>0.06801485304209887</v>
+        <v>0.1009614521127821</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N14">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O14">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P14">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q14">
-        <v>0.4517969512544445</v>
+        <v>0.3781264136637777</v>
       </c>
       <c r="R14">
-        <v>4.06617256129</v>
+        <v>3.403137722973999</v>
       </c>
       <c r="S14">
-        <v>0.0004688982264635806</v>
+        <v>0.0005616137696518161</v>
       </c>
       <c r="T14">
-        <v>0.0004998167757398791</v>
+        <v>0.0006360829885691388</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.261376666666667</v>
+        <v>1.673271333333333</v>
       </c>
       <c r="H15">
-        <v>3.78413</v>
+        <v>5.019813999999999</v>
       </c>
       <c r="I15">
-        <v>0.06670065980268071</v>
+        <v>0.09934815006247043</v>
       </c>
       <c r="J15">
-        <v>0.06801485304209887</v>
+        <v>0.1009614521127821</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N15">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O15">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P15">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q15">
-        <v>8.363014965678333</v>
+        <v>20.616127617207</v>
       </c>
       <c r="R15">
-        <v>50.17808979407</v>
+        <v>123.696765703242</v>
       </c>
       <c r="S15">
-        <v>0.008679569161338772</v>
+        <v>0.03062018607623038</v>
       </c>
       <c r="T15">
-        <v>0.006167925899756102</v>
+        <v>0.02312025395672059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.261376666666667</v>
+        <v>1.673271333333333</v>
       </c>
       <c r="H16">
-        <v>3.78413</v>
+        <v>5.019813999999999</v>
       </c>
       <c r="I16">
-        <v>0.06670065980268071</v>
+        <v>0.09934815006247043</v>
       </c>
       <c r="J16">
-        <v>0.06801485304209887</v>
+        <v>0.1009614521127821</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N16">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O16">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P16">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q16">
-        <v>1.15886710772</v>
+        <v>1.670329164572222</v>
       </c>
       <c r="R16">
-        <v>10.42980396948</v>
+        <v>15.03296248115</v>
       </c>
       <c r="S16">
-        <v>0.001202732178710207</v>
+        <v>0.002480863078528271</v>
       </c>
       <c r="T16">
-        <v>0.001282038800136572</v>
+        <v>0.002809822134880047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.096204</v>
+        <v>0.8073985</v>
       </c>
       <c r="H17">
-        <v>2.192408</v>
+        <v>1.614797</v>
       </c>
       <c r="I17">
-        <v>0.05796645206031859</v>
+        <v>0.04793815906618067</v>
       </c>
       <c r="J17">
-        <v>0.03940570433053882</v>
+        <v>0.03247774718094421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N17">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O17">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P17">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q17">
-        <v>43.77116957366533</v>
+        <v>18.82560431650767</v>
       </c>
       <c r="R17">
-        <v>262.627017441992</v>
+        <v>112.953625899046</v>
       </c>
       <c r="S17">
-        <v>0.0454279820311789</v>
+        <v>0.0279608041758448</v>
       </c>
       <c r="T17">
-        <v>0.03228229670567479</v>
+        <v>0.0211122457509001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.096204</v>
+        <v>0.8073985</v>
       </c>
       <c r="H18">
-        <v>2.192408</v>
+        <v>1.614797</v>
       </c>
       <c r="I18">
-        <v>0.05796645206031859</v>
+        <v>0.04793815906618067</v>
       </c>
       <c r="J18">
-        <v>0.03940570433053882</v>
+        <v>0.03247774718094421</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O18">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P18">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q18">
-        <v>3.413514945365333</v>
+        <v>2.514191561621333</v>
       </c>
       <c r="R18">
-        <v>20.481089672192</v>
+        <v>15.085149369728</v>
       </c>
       <c r="S18">
-        <v>0.003542722232729951</v>
+        <v>0.003734213081989212</v>
       </c>
       <c r="T18">
-        <v>0.002517549870128163</v>
+        <v>0.002819576424818631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.096204</v>
+        <v>0.8073985</v>
       </c>
       <c r="H19">
-        <v>2.192408</v>
+        <v>1.614797</v>
       </c>
       <c r="I19">
-        <v>0.05796645206031859</v>
+        <v>0.04793815906618067</v>
       </c>
       <c r="J19">
-        <v>0.03940570433053882</v>
+        <v>0.03247774718094421</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N19">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O19">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P19">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q19">
-        <v>0.3926357909106666</v>
+        <v>0.1824561821628334</v>
       </c>
       <c r="R19">
-        <v>2.355814745464</v>
+        <v>1.094737092977</v>
       </c>
       <c r="S19">
-        <v>0.000407497716602455</v>
+        <v>0.0002709937749862178</v>
       </c>
       <c r="T19">
-        <v>0.0002895783965313867</v>
+        <v>0.0002046181196539314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.096204</v>
+        <v>0.8073985</v>
       </c>
       <c r="H20">
-        <v>2.192408</v>
+        <v>1.614797</v>
       </c>
       <c r="I20">
-        <v>0.05796645206031859</v>
+        <v>0.04793815906618067</v>
       </c>
       <c r="J20">
-        <v>0.03940570433053882</v>
+        <v>0.03247774718094421</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N20">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O20">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P20">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q20">
-        <v>7.267908706177999</v>
+        <v>9.947837019822749</v>
       </c>
       <c r="R20">
-        <v>29.071634824712</v>
+        <v>39.791348079291</v>
       </c>
       <c r="S20">
-        <v>0.007543011286295295</v>
+        <v>0.01477506475797866</v>
       </c>
       <c r="T20">
-        <v>0.003573505689823678</v>
+        <v>0.007437430296929437</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.096204</v>
+        <v>0.8073985</v>
       </c>
       <c r="H21">
-        <v>2.192408</v>
+        <v>1.614797</v>
       </c>
       <c r="I21">
-        <v>0.05796645206031859</v>
+        <v>0.04793815906618067</v>
       </c>
       <c r="J21">
-        <v>0.03940570433053882</v>
+        <v>0.03247774718094421</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N21">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O21">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P21">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q21">
-        <v>1.007117693328</v>
+        <v>0.8059788243041666</v>
       </c>
       <c r="R21">
-        <v>6.042706159967999</v>
+        <v>4.835872945825</v>
       </c>
       <c r="S21">
-        <v>0.001045238793511991</v>
+        <v>0.001197083275381783</v>
       </c>
       <c r="T21">
-        <v>0.0007427736683807961</v>
+        <v>0.0009038765886421083</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.312340666666667</v>
+        <v>1.606691</v>
       </c>
       <c r="H22">
-        <v>6.937022000000001</v>
+        <v>4.820073</v>
       </c>
       <c r="I22">
-        <v>0.1222748543167681</v>
+        <v>0.09539503569575726</v>
       </c>
       <c r="J22">
-        <v>0.1246840176949013</v>
+        <v>0.09694414362157924</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N22">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O22">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P22">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q22">
-        <v>92.33122250306424</v>
+        <v>37.46220611617933</v>
       </c>
       <c r="R22">
-        <v>830.9810025275781</v>
+        <v>337.159855045614</v>
       </c>
       <c r="S22">
-        <v>0.09582611471523329</v>
+        <v>0.05564089160692303</v>
       </c>
       <c r="T22">
-        <v>0.1021447661465355</v>
+        <v>0.06301879785092385</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.312340666666667</v>
+        <v>1.606691</v>
       </c>
       <c r="H23">
-        <v>6.937022000000001</v>
+        <v>4.820073</v>
       </c>
       <c r="I23">
-        <v>0.1222748543167681</v>
+        <v>0.09539503569575726</v>
       </c>
       <c r="J23">
-        <v>0.1246840176949013</v>
+        <v>0.09694414362157924</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O23">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P23">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q23">
-        <v>7.200493178680889</v>
+        <v>5.003141514794666</v>
       </c>
       <c r="R23">
-        <v>64.804438608128</v>
+        <v>45.028273633152</v>
       </c>
       <c r="S23">
-        <v>0.007473043967587785</v>
+        <v>0.007430935963981019</v>
       </c>
       <c r="T23">
-        <v>0.007965806927896729</v>
+        <v>0.008416267925135366</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.312340666666667</v>
+        <v>1.606691</v>
       </c>
       <c r="H24">
-        <v>6.937022000000001</v>
+        <v>4.820073</v>
       </c>
       <c r="I24">
-        <v>0.1222748543167681</v>
+        <v>0.09539503569575726</v>
       </c>
       <c r="J24">
-        <v>0.1246840176949013</v>
+        <v>0.09694414362157924</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N24">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O24">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P24">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q24">
-        <v>0.8282287845251113</v>
+        <v>0.3630805677436666</v>
       </c>
       <c r="R24">
-        <v>7.454059060726</v>
+        <v>3.267725109693</v>
       </c>
       <c r="S24">
-        <v>0.000859578638349856</v>
+        <v>0.0005392668667657683</v>
       </c>
       <c r="T24">
-        <v>0.0009162581542591315</v>
+        <v>0.0006107729168772817</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.312340666666667</v>
+        <v>1.606691</v>
       </c>
       <c r="H25">
-        <v>6.937022000000001</v>
+        <v>4.820073</v>
       </c>
       <c r="I25">
-        <v>0.1222748543167681</v>
+        <v>0.09539503569575726</v>
       </c>
       <c r="J25">
-        <v>0.1246840176949013</v>
+        <v>0.09694414362157924</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N25">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O25">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P25">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q25">
-        <v>15.33097932767634</v>
+        <v>19.7958012173865</v>
       </c>
       <c r="R25">
-        <v>91.985875966058</v>
+        <v>118.774807304319</v>
       </c>
       <c r="S25">
-        <v>0.01591128270506791</v>
+        <v>0.02940179300687515</v>
       </c>
       <c r="T25">
-        <v>0.01130696822280891</v>
+        <v>0.02220028707237601</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.312340666666667</v>
+        <v>1.606691</v>
       </c>
       <c r="H26">
-        <v>6.937022000000001</v>
+        <v>4.820073</v>
       </c>
       <c r="I26">
-        <v>0.1222748543167681</v>
+        <v>0.09539503569575726</v>
       </c>
       <c r="J26">
-        <v>0.1246840176949013</v>
+        <v>0.09694414362157924</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N26">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O26">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P26">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q26">
-        <v>2.124421365368</v>
+        <v>1.603865901658333</v>
       </c>
       <c r="R26">
-        <v>19.119792288312</v>
+        <v>14.434793114925</v>
       </c>
       <c r="S26">
-        <v>0.0022048342905293</v>
+        <v>0.002382148251212296</v>
       </c>
       <c r="T26">
-        <v>0.002350218243400995</v>
+        <v>0.002698017856266721</v>
       </c>
     </row>
   </sheetData>
